--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone.xlsx
@@ -283,7 +283,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -365,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +376,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -398,7 +406,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,27 +436,27 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -457,22 +465,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -481,25 +489,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -508,25 +516,25 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -535,25 +543,25 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -562,25 +570,25 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -589,25 +597,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -616,25 +624,25 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -643,25 +651,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -670,25 +678,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="1" t="n">
@@ -697,25 +705,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="D12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -724,25 +732,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="D13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1" t="n">
@@ -751,25 +759,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -778,25 +786,25 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -805,25 +813,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="D16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -832,25 +840,25 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="D17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="1" t="n">
@@ -859,25 +867,25 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -886,25 +894,25 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="1" t="n">
@@ -913,25 +921,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="D20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="1" t="n">
@@ -940,25 +948,25 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="D21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -967,25 +975,25 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="1" t="n">
@@ -994,25 +1002,25 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="1" t="n">
@@ -1021,25 +1029,25 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="D24" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="1" t="n">
@@ -1048,25 +1056,25 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="D25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="1" t="n">
@@ -1075,25 +1083,25 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="D26" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1102,25 +1110,25 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="1" t="n">
@@ -1129,25 +1137,25 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1156,25 +1164,25 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="D29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H29" s="1" t="n">
@@ -1183,25 +1191,25 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -1210,25 +1218,25 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1" t="n">
@@ -1237,25 +1245,25 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -1264,25 +1272,25 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="1" t="n">
@@ -1291,25 +1299,25 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="D34" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -1318,25 +1326,25 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="D35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H35" s="1" t="n">
@@ -1345,25 +1353,25 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="D36" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -1372,25 +1380,25 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="D37" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H37" s="1" t="n">
@@ -1399,25 +1407,25 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="1" t="n">
@@ -1426,25 +1434,25 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H39" s="1" t="n">
@@ -1453,25 +1461,25 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="D40" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H40" s="1" t="n">
@@ -1480,25 +1488,25 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="D41" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H41" s="1" t="n">
@@ -1507,25 +1515,25 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="D42" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="1" t="n">
@@ -1534,25 +1542,25 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="D43" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H43" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/zone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="86">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">fra</t>
@@ -405,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,33 +462,31 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,53 +494,51 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,53 +546,51 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,53 +598,51 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,53 +650,51 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,53 +702,51 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,53 +754,51 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,53 +806,51 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,53 +858,51 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,53 +910,51 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,53 +962,51 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,53 +1014,51 @@
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,53 +1066,51 @@
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,53 +1118,51 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,53 +1170,51 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,53 +1222,51 @@
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,53 +1274,51 @@
         <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,53 +1326,51 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,53 +1378,51 @@
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,53 +1430,51 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,53 +1482,51 @@
         <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
